--- a/output/fit_clients/fit_round_168.xlsx
+++ b/output/fit_clients/fit_round_168.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2333591275.532369</v>
+        <v>1738460936.195847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08446481301212062</v>
+        <v>0.1109288701251396</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03289453379948173</v>
+        <v>0.0320088322523522</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1166795678.207843</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2572028771.143332</v>
+        <v>2539687408.523027</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1606710182790643</v>
+        <v>0.1525427047992528</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04934155681673638</v>
+        <v>0.03600956370750921</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1286014514.18879</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3470670538.204281</v>
+        <v>3785830210.286098</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1645482502228962</v>
+        <v>0.1509719800842547</v>
       </c>
       <c r="G4" t="n">
-        <v>0.024751692136527</v>
+        <v>0.02922456651063787</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1735335245.759186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2916292692.030585</v>
+        <v>3969684683.002967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07872841067040477</v>
+        <v>0.07689556740444722</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03067228172520876</v>
+        <v>0.04279445140686994</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1458146421.378398</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2723888988.738976</v>
+        <v>1967073482.580268</v>
       </c>
       <c r="F6" t="n">
-        <v>0.149065074077283</v>
+        <v>0.1431958252360019</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03737279219029714</v>
+        <v>0.04027247355838771</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1361944445.577775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2882652509.840582</v>
+        <v>2164432540.337046</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07536854021208989</v>
+        <v>0.0972723279239273</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0417582562291363</v>
+        <v>0.03523858751812855</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>52</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1441326231.051498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3449524546.195914</v>
+        <v>3879915426.997596</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1392008105457156</v>
+        <v>0.2077964518179714</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03148333649942095</v>
+        <v>0.02248441142207886</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>53</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1724762376.53334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1619808169.299644</v>
+        <v>1464821010.795529</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1306654532451966</v>
+        <v>0.198251251272471</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02612692155474276</v>
+        <v>0.02674466022400093</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>809904163.9894834</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3595048655.652356</v>
+        <v>4184823479.295919</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1966569242943352</v>
+        <v>0.1646364314617917</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03706459961389353</v>
+        <v>0.05421721841159379</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>70</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1797524318.327793</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2879167743.824033</v>
+        <v>3907297889.485754</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1205114881675928</v>
+        <v>0.1407546011566023</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04928737129920566</v>
+        <v>0.03323834230564175</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>69</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1439583806.397141</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2761841939.461048</v>
+        <v>2314975267.569893</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1339310244855743</v>
+        <v>0.1225673415119951</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03350821473773719</v>
+        <v>0.04132586906879521</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>59</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1380920965.918494</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4233673567.077588</v>
+        <v>4778626217.134501</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08787841281140346</v>
+        <v>0.09988827064803157</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02984635092093189</v>
+        <v>0.03023341151926217</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>56</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2116836826.57457</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3569233418.358788</v>
+        <v>2410712533.569637</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1447323414099424</v>
+        <v>0.118789113555192</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03795316869652971</v>
+        <v>0.03300935998302782</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>54</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1784616702.36594</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1599405326.321027</v>
+        <v>1443312809.646926</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06977203512399034</v>
+        <v>0.0863331841250929</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04819464687474143</v>
+        <v>0.03801618772326459</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>799702771.1698875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2758616958.709605</v>
+        <v>2579586232.405122</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0879768675162373</v>
+        <v>0.07539458946985055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04231065762630784</v>
+        <v>0.03827560997714897</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1379308487.024582</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5203714637.023641</v>
+        <v>4639249806.773913</v>
       </c>
       <c r="F17" t="n">
-        <v>0.167632900781881</v>
+        <v>0.1199934389347228</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04246709275460435</v>
+        <v>0.05259734659044342</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>49</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2601857293.572235</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3966851099.272261</v>
+        <v>3923532863.497273</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1135094218627256</v>
+        <v>0.1294798544918321</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02401623881474692</v>
+        <v>0.02697506092079937</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>55</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1983425509.91741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1163911493.303051</v>
+        <v>914458887.2076389</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1690740188505561</v>
+        <v>0.1495196287028447</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01737184315082807</v>
+        <v>0.01984749429610612</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>581955815.7610384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2722405347.153935</v>
+        <v>1795686534.577735</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1110715517520901</v>
+        <v>0.1318181810053557</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02609695421723721</v>
+        <v>0.0305399477955188</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1361202622.957881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1835112905.909398</v>
+        <v>2532186831.968271</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07355817275219974</v>
+        <v>0.06941942954539014</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04334616414796427</v>
+        <v>0.03931688376511396</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>917556504.6647115</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2932230260.997307</v>
+        <v>2813825310.246082</v>
       </c>
       <c r="F22" t="n">
-        <v>0.105822765246896</v>
+        <v>0.1146764496182821</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03834955792675937</v>
+        <v>0.03778049823295013</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1466115196.05442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1313851603.5302</v>
+        <v>1199214351.619877</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1354383458047369</v>
+        <v>0.1412206701842451</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0363726619326262</v>
+        <v>0.05407037701407486</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>656925819.0449607</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3664670896.88587</v>
+        <v>3745087703.85553</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1154247478876188</v>
+        <v>0.1292382291284412</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03224177156395781</v>
+        <v>0.03082134100282924</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>50</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1832335438.950464</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1224248724.731315</v>
+        <v>1246644457.270067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07717164307506562</v>
+        <v>0.109447712601304</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03040877670250628</v>
+        <v>0.01954228617747177</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>612124374.7258575</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>963482308.3857864</v>
+        <v>1146226878.065372</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1187269172446461</v>
+        <v>0.07829503933586227</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0277845768120601</v>
+        <v>0.03801139847851808</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>481741117.3073196</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4356119786.351136</v>
+        <v>2978870615.346256</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1037700665017259</v>
+        <v>0.1490467842383884</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01732391125353249</v>
+        <v>0.02651488738748757</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2178059885.607273</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3296681021.863918</v>
+        <v>3781253812.33858</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1479887997724827</v>
+        <v>0.1170102564201554</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04027441692855741</v>
+        <v>0.04679104200129185</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>54</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1648340547.867011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4548310754.815441</v>
+        <v>4388400788.802378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.131427844676033</v>
+        <v>0.1467249783882716</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04520921305114339</v>
+        <v>0.03203492956925938</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2274155356.20324</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1751555547.369995</v>
+        <v>2188782871.950492</v>
       </c>
       <c r="F30" t="n">
-        <v>0.136970036906891</v>
+        <v>0.1099260802695432</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03959898376006239</v>
+        <v>0.02822583396565584</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>875777782.8053144</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1004680607.2117</v>
+        <v>1331550517.182634</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06756406299891582</v>
+        <v>0.0798695460824187</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04718819745001301</v>
+        <v>0.03476952758928186</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>502340301.0011883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1222890499.43117</v>
+        <v>1315233938.582972</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07263279306139032</v>
+        <v>0.1042305808860294</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03062411597410038</v>
+        <v>0.02342104610793286</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>611445260.6532525</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2921840000.179761</v>
+        <v>1879843791.705001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.204383832931836</v>
+        <v>0.2023756333943878</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05020172228164067</v>
+        <v>0.0516841593273109</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>50</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1460920002.331815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1202097920.08041</v>
+        <v>1040427603.460666</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09778990161373641</v>
+        <v>0.09871079402281208</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02163208765530807</v>
+        <v>0.01773285972911978</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>601048964.6908187</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>892159022.7600842</v>
+        <v>1036179065.467886</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1095289801604968</v>
+        <v>0.09585726983052702</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03298898271806101</v>
+        <v>0.03706334868857591</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>446079553.5747519</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2853789199.897371</v>
+        <v>2933551270.463522</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1566931140773128</v>
+        <v>0.1431315196952585</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01812198867538719</v>
+        <v>0.02712068243026603</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>42</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1426894593.531947</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2005260848.896384</v>
+        <v>2537514066.185214</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1065509609322466</v>
+        <v>0.1059786084458025</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03564886691740319</v>
+        <v>0.0391065319706828</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>47</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1002630452.425204</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1594586238.234401</v>
+        <v>2044650022.202506</v>
       </c>
       <c r="F38" t="n">
-        <v>0.074747043114956</v>
+        <v>0.118510953510357</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02770361117275736</v>
+        <v>0.03758476052267671</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>797293154.9786762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2225290099.698588</v>
+        <v>1972900733.682058</v>
       </c>
       <c r="F39" t="n">
-        <v>0.14489981924764</v>
+        <v>0.149789372472561</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02985597271041134</v>
+        <v>0.02837477781332168</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1112645010.152358</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1803540590.423296</v>
+        <v>1793766687.029322</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1627690853307485</v>
+        <v>0.1083119506123715</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06019098848682133</v>
+        <v>0.05805119422361392</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>901770185.3925202</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2850629855.354481</v>
+        <v>2387892957.778141</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1042879818160257</v>
+        <v>0.1459060516279524</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02960952940348375</v>
+        <v>0.0382284178927529</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1425314918.604474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3776012578.020243</v>
+        <v>3039509257.119451</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08291842286164107</v>
+        <v>0.09093094481489719</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04082945129376024</v>
+        <v>0.04216213840371982</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1888006302.827767</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2994642302.754113</v>
+        <v>2982005669.200041</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1586690455684704</v>
+        <v>0.1539449233527603</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02092310382935971</v>
+        <v>0.02140849707557324</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>58</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1497321150.282029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1876862574.286891</v>
+        <v>1757111076.375449</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09033559602369651</v>
+        <v>0.09087713131294624</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02994238386520012</v>
+        <v>0.0311346835085403</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>938431368.8806167</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1985885287.3013</v>
+        <v>1764035535.628038</v>
       </c>
       <c r="F45" t="n">
-        <v>0.141657013288151</v>
+        <v>0.1482821783872598</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04400477759306295</v>
+        <v>0.04965048836125478</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>992942633.0460987</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4593582044.974947</v>
+        <v>4998846367.446789</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1556896718865126</v>
+        <v>0.1635301884827843</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05390765909877988</v>
+        <v>0.03773103984770382</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>60</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2296791025.973183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3805190387.779966</v>
+        <v>5191362956.281832</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1560847947989871</v>
+        <v>0.1237154216785605</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04007965241223157</v>
+        <v>0.0451471571763125</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>45</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1902595181.987169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3585497942.726401</v>
+        <v>3775661659.46332</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07179786061644688</v>
+        <v>0.07272800676880023</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02955102181211543</v>
+        <v>0.02778168271098278</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1792749029.771049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1816304658.720204</v>
+        <v>1514259085.387991</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1867973718690535</v>
+        <v>0.1702242505369632</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03984333662078742</v>
+        <v>0.0279464254010277</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>908152312.1853009</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3721778411.775207</v>
+        <v>3655827757.007055</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1180501267769716</v>
+        <v>0.14796974153848</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04520565136419728</v>
+        <v>0.05351755843159563</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>57</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1860889214.355707</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1275402099.998814</v>
+        <v>995464119.1590563</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1541988068189481</v>
+        <v>0.1895943680361321</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04964114607629994</v>
+        <v>0.0340620787642483</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>637701089.2995435</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4113538079.102276</v>
+        <v>3464180778.727463</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1182715099737734</v>
+        <v>0.1243631836101745</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04696226370786771</v>
+        <v>0.0520272025102344</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>69</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2056769089.324591</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2936364929.283274</v>
+        <v>3737558012.582287</v>
       </c>
       <c r="F53" t="n">
-        <v>0.14704842608411</v>
+        <v>0.1591772921059956</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02815424130670436</v>
+        <v>0.02345059104127723</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>48</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1468182501.438017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3825820421.84768</v>
+        <v>4569951250.047166</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1272929138848278</v>
+        <v>0.1635570995510702</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04559479122737205</v>
+        <v>0.03602676380074405</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1912910261.28706</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3194029340.904808</v>
+        <v>3548507020.524257</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2246456428269829</v>
+        <v>0.1734395581692358</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0226616561275507</v>
+        <v>0.02455589293667964</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1597014609.735305</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1143569296.626157</v>
+        <v>1540344152.67321</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1127714458792652</v>
+        <v>0.09972254986869913</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04254056093543</v>
+        <v>0.03709731958876098</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>571784743.3202661</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3892644360.141566</v>
+        <v>3942141217.65346</v>
       </c>
       <c r="F57" t="n">
-        <v>0.175291619325816</v>
+        <v>0.1657947769029308</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01681599090593908</v>
+        <v>0.01748533612078462</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>54</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1946322259.398663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1174198355.57724</v>
+        <v>1219775481.558378</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1630437758901737</v>
+        <v>0.1473624500575953</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03376847650701906</v>
+        <v>0.0392869614894462</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>587099238.6171523</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5059593160.55912</v>
+        <v>4554673072.602079</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08205653816983598</v>
+        <v>0.08202829686332092</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04546073230820656</v>
+        <v>0.03519675663897132</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>47</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2529796505.104736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3421323067.312613</v>
+        <v>3660158973.42459</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1540384075376552</v>
+        <v>0.1533358087767831</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02209996350919563</v>
+        <v>0.0280911969328689</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1710661648.171435</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2839418605.686077</v>
+        <v>3307070266.57358</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1335932978214885</v>
+        <v>0.1476875813597737</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02910251114969428</v>
+        <v>0.0270200165889906</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>56</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1419709298.422987</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1959418890.857676</v>
+        <v>1411473518.391115</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1171418283593879</v>
+        <v>0.1243645636104258</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03542351963996379</v>
+        <v>0.04183843172257626</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>979709497.4063147</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4597219750.537387</v>
+        <v>4056195346.239644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08656837247670143</v>
+        <v>0.06933303633632903</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03413252660092946</v>
+        <v>0.04534943929485356</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>48</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2298609910.97297</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3757992906.425145</v>
+        <v>3409242406.075475</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1564632873562713</v>
+        <v>0.1417012771546566</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03454167415638391</v>
+        <v>0.03227797142264746</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>52</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1878996472.021541</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4788622670.248797</v>
+        <v>3739212686.238814</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1667530456536065</v>
+        <v>0.1128504811564661</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01949527281638231</v>
+        <v>0.02964115942434636</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>61</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2394311306.627982</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5413752911.825963</v>
+        <v>3483735930.729783</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1386512724768059</v>
+        <v>0.1518939487630601</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03860507387689677</v>
+        <v>0.04713409866091679</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>49</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2706876505.213547</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3213816663.083549</v>
+        <v>2959262088.775962</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07138197085651062</v>
+        <v>0.07612649106011482</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03548677318284694</v>
+        <v>0.03347639627928128</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>53</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1606908331.70911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5055906512.942898</v>
+        <v>4021609805.411527</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1356721079423863</v>
+        <v>0.1489708827691581</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0478215228371248</v>
+        <v>0.05150010104516189</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2527953316.218115</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1529052912.915029</v>
+        <v>1867259369.792871</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1232424073776661</v>
+        <v>0.1446398654228212</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04746001933207764</v>
+        <v>0.05022779486056089</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>764526400.4841205</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3335284514.269012</v>
+        <v>2414663980.692494</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09880117615842776</v>
+        <v>0.091037806844185</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03143936117273978</v>
+        <v>0.04536499154825242</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>48</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1667642255.921015</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3668919786.460081</v>
+        <v>4792763284.779585</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1395949315936004</v>
+        <v>0.1417245206221324</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03167092158856125</v>
+        <v>0.02507027680147552</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>61</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1834459899.515806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1779737160.953192</v>
+        <v>1971910660.785441</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06676217387697823</v>
+        <v>0.08103212095368639</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03910032191936771</v>
+        <v>0.0525828549146711</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>889868562.2857785</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2899517492.399565</v>
+        <v>3109294651.139635</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0979715165307902</v>
+        <v>0.07915324022646925</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04713558330691841</v>
+        <v>0.04729103583507248</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>63</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1449758751.357957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3660142913.190678</v>
+        <v>3860482585.855876</v>
       </c>
       <c r="F74" t="n">
-        <v>0.160914377122964</v>
+        <v>0.124098541704107</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02993909724322035</v>
+        <v>0.03347556061666325</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>57</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1830071464.859693</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1745909938.567509</v>
+        <v>2275563818.272057</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1512432903585163</v>
+        <v>0.1011883075716923</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02385214142797388</v>
+        <v>0.03478754434585515</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>872954957.2312553</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4053571795.953014</v>
+        <v>3897580019.645455</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09238913091635242</v>
+        <v>0.08256529777433333</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03091777471969214</v>
+        <v>0.02842576384264704</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2026785884.924972</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1833970253.063909</v>
+        <v>2253505299.589922</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1629742710274407</v>
+        <v>0.1494845517644221</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01990068769828211</v>
+        <v>0.02461050195940363</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>916985163.5009316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4348865030.221492</v>
+        <v>3716893890.739107</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09162154892093864</v>
+        <v>0.1088180244582121</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05713776323774257</v>
+        <v>0.03487869970419117</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>59</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2174432455.862417</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1479809135.939637</v>
+        <v>1308179326.969387</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1541377874117062</v>
+        <v>0.1217322285720016</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02511935020752368</v>
+        <v>0.02836355237843095</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>739904598.6133121</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4520398458.475752</v>
+        <v>3838323393.149593</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08110081748755153</v>
+        <v>0.103617353690423</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03588894423420903</v>
+        <v>0.03553088551518744</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>35</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2260199254.554675</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4047546171.095633</v>
+        <v>4693842883.218805</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1280411210658714</v>
+        <v>0.1098878661568944</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02237165980805574</v>
+        <v>0.02111347966395269</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2023773050.501889</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5619586691.697371</v>
+        <v>5532069460.713121</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1378695958635842</v>
+        <v>0.1457701513582799</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02039840218921667</v>
+        <v>0.01987944016017031</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2809793295.204576</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1507421974.066844</v>
+        <v>1871425464.954747</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1521577728885484</v>
+        <v>0.09606835491604918</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03519135031455115</v>
+        <v>0.03180699406556625</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>753710911.0355238</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2113875095.632718</v>
+        <v>2579485577.187398</v>
       </c>
       <c r="F84" t="n">
-        <v>0.111649998588213</v>
+        <v>0.07876561126492196</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05200148751052401</v>
+        <v>0.04086510030747522</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1056937536.153562</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3661837904.459688</v>
+        <v>2725356069.232279</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1639667519085674</v>
+        <v>0.1406718192155092</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04241565353216983</v>
+        <v>0.0461943322647587</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>63</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1830919085.42982</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2574139882.143123</v>
+        <v>1711858417.018075</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1688290156629654</v>
+        <v>0.1459387738619435</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02172376201585267</v>
+        <v>0.01927409570748238</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1287070048.515587</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1132869361.167819</v>
+        <v>1447178298.062404</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1680320101320647</v>
+        <v>0.1179295555471812</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03545986850600496</v>
+        <v>0.03743780673875007</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>566434718.9440287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2357050762.959749</v>
+        <v>3373982562.680757</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1639190385146179</v>
+        <v>0.141253660792215</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03569636544573841</v>
+        <v>0.03719675817543146</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>67</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1178525348.367329</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3386298549.906739</v>
+        <v>2150144240.226922</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1393093247171653</v>
+        <v>0.1164641890471072</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04013680790990758</v>
+        <v>0.03157346265810078</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1693149284.707022</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1615949654.766079</v>
+        <v>2048768880.442938</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08458454074914172</v>
+        <v>0.08310217047644021</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05582811348603774</v>
+        <v>0.05298744095189636</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>807974827.3350283</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1945787101.388194</v>
+        <v>1741277573.752222</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1697142979799123</v>
+        <v>0.1567264852026061</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03803758762116077</v>
+        <v>0.04307640190468963</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>972893530.1331931</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2128475918.61667</v>
+        <v>2875523232.689151</v>
       </c>
       <c r="F92" t="n">
-        <v>0.098451303795766</v>
+        <v>0.08155907807231567</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04631762916814738</v>
+        <v>0.04377451495013916</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>41</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1064237915.194003</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3589491930.791373</v>
+        <v>3840717139.705346</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08970099933663533</v>
+        <v>0.1235877692152495</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03832017155342451</v>
+        <v>0.03663627765587363</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1794745992.526216</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1970498595.309723</v>
+        <v>1693819599.337212</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1256748401192739</v>
+        <v>0.1104257585522227</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02620173547430462</v>
+        <v>0.04144825297404744</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>985249292.120892</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3205647937.625186</v>
+        <v>2112090946.656065</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1238728269252019</v>
+        <v>0.1056655134172158</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04602466240224919</v>
+        <v>0.05027085752809584</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>40</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1602823953.576937</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1955632764.250726</v>
+        <v>1687942455.167667</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1177780140655714</v>
+        <v>0.1198316258537135</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0294338135025343</v>
+        <v>0.03916105312238151</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>977816373.8043085</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4718699494.694266</v>
+        <v>4050564589.051409</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1385269442202275</v>
+        <v>0.1143845599903675</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02442770804176989</v>
+        <v>0.02630393412514694</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>56</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2359349861.485774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2651218990.718029</v>
+        <v>2746974021.322476</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08177057003593573</v>
+        <v>0.08097813545421735</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03152280260106251</v>
+        <v>0.02304810834460514</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>44</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1325609456.374558</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2433628670.779597</v>
+        <v>2467902058.755164</v>
       </c>
       <c r="F99" t="n">
-        <v>0.12608252971072</v>
+        <v>0.1222262885046248</v>
       </c>
       <c r="G99" t="n">
-        <v>0.032851977560893</v>
+        <v>0.03222334558511363</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1216814280.245431</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3767497373.381512</v>
+        <v>4630194726.311988</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1640368466479911</v>
+        <v>0.1520864838807819</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02317678812434122</v>
+        <v>0.02413648192203864</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>51</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1883748738.764006</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3337106310.856695</v>
+        <v>2848109919.876497</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1427681271578215</v>
+        <v>0.1734676510615422</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04092685331460132</v>
+        <v>0.03542354200506083</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>68</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1668553288.987938</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_168.xlsx
+++ b/output/fit_clients/fit_round_168.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1738460936.195847</v>
+        <v>1931974582.431729</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1109288701251396</v>
+        <v>0.1086795253148263</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0320088322523522</v>
+        <v>0.04479071462250439</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2539687408.523027</v>
+        <v>2507435220.774049</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1525427047992528</v>
+        <v>0.1783853217831218</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03600956370750921</v>
+        <v>0.03794704230718891</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3785830210.286098</v>
+        <v>4703661175.401703</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1509719800842547</v>
+        <v>0.1502835348659116</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02922456651063787</v>
+        <v>0.03125280163299302</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3969684683.002967</v>
+        <v>3684887496.575202</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07689556740444722</v>
+        <v>0.07204636731476249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04279445140686994</v>
+        <v>0.04353797278049228</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1967073482.580268</v>
+        <v>2752696374.390094</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1431958252360019</v>
+        <v>0.09027136957373183</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04027247355838771</v>
+        <v>0.05337291512710318</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2164432540.337046</v>
+        <v>2938681444.900118</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0972723279239273</v>
+        <v>0.0705450373472216</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03523858751812855</v>
+        <v>0.03716537212242388</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3879915426.997596</v>
+        <v>2420271790.221219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2077964518179714</v>
+        <v>0.1919635361975802</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02248441142207886</v>
+        <v>0.0332902468163013</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1464821010.795529</v>
+        <v>1993329541.860883</v>
       </c>
       <c r="F9" t="n">
-        <v>0.198251251272471</v>
+        <v>0.178459007226207</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02674466022400093</v>
+        <v>0.03693254112184494</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4184823479.295919</v>
+        <v>5826666600.275118</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1646364314617917</v>
+        <v>0.1574229967184913</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05421721841159379</v>
+        <v>0.04331621166629398</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3907297889.485754</v>
+        <v>3607869046.454291</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1407546011566023</v>
+        <v>0.1506887766620725</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03323834230564175</v>
+        <v>0.03669278496544148</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2314975267.569893</v>
+        <v>2743993049.06336</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1225673415119951</v>
+        <v>0.1662251976841052</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04132586906879521</v>
+        <v>0.04002757826316165</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4778626217.134501</v>
+        <v>5064919638.405032</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09988827064803157</v>
+        <v>0.06785613455935199</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03023341151926217</v>
+        <v>0.02204362252714018</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2410712533.569637</v>
+        <v>3807706716.599853</v>
       </c>
       <c r="F14" t="n">
-        <v>0.118789113555192</v>
+        <v>0.1344470000190436</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03300935998302782</v>
+        <v>0.03135145035176586</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1443312809.646926</v>
+        <v>1484071130.732916</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0863331841250929</v>
+        <v>0.1085456970644348</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03801618772326459</v>
+        <v>0.04752168580858619</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2579586232.405122</v>
+        <v>2485783659.675699</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07539458946985055</v>
+        <v>0.07515145649935331</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03827560997714897</v>
+        <v>0.04320713686097082</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4639249806.773913</v>
+        <v>3887435878.067142</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1199934389347228</v>
+        <v>0.1488536504166341</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05259734659044342</v>
+        <v>0.04736741010465936</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3923532863.497273</v>
+        <v>3254672872.313463</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1294798544918321</v>
+        <v>0.1808993436186661</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02697506092079937</v>
+        <v>0.02485300464521611</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>914458887.2076389</v>
+        <v>881637153.5231286</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1495196287028447</v>
+        <v>0.1348182738304441</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01984749429610612</v>
+        <v>0.02216949876944271</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1795686534.577735</v>
+        <v>2060703948.736182</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1318181810053557</v>
+        <v>0.1246819423162309</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0305399477955188</v>
+        <v>0.02426659801318403</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2532186831.968271</v>
+        <v>1834688670.515977</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06941942954539014</v>
+        <v>0.07790939942898127</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03931688376511396</v>
+        <v>0.03478600725542405</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2813825310.246082</v>
+        <v>3584244186.860116</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1146764496182821</v>
+        <v>0.1180964225461877</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03778049823295013</v>
+        <v>0.05189587499827921</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1199214351.619877</v>
+        <v>1221870658.453401</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1412206701842451</v>
+        <v>0.1578230884786239</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05407037701407486</v>
+        <v>0.05272115044695871</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3745087703.85553</v>
+        <v>3522072571.1607</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1292382291284412</v>
+        <v>0.09241689597990276</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03082134100282924</v>
+        <v>0.0261460416714631</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1246644457.270067</v>
+        <v>1287871681.520143</v>
       </c>
       <c r="F25" t="n">
-        <v>0.109447712601304</v>
+        <v>0.1044961575123748</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01954228617747177</v>
+        <v>0.02459405886624575</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1146226878.065372</v>
+        <v>1298819377.078188</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07829503933586227</v>
+        <v>0.1174482284463664</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03801139847851808</v>
+        <v>0.02456798641067146</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2978870615.346256</v>
+        <v>4511919186.108055</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1490467842383884</v>
+        <v>0.1111416181432369</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02651488738748757</v>
+        <v>0.01759340526664346</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3781253812.33858</v>
+        <v>3757347456.232434</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1170102564201554</v>
+        <v>0.1195411949603956</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04679104200129185</v>
+        <v>0.03144890049458157</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4388400788.802378</v>
+        <v>4620837956.558188</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1467249783882716</v>
+        <v>0.1243067284879039</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03203492956925938</v>
+        <v>0.03437061739927768</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2188782871.950492</v>
+        <v>1778178475.422661</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1099260802695432</v>
+        <v>0.1091817050538667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02822583396565584</v>
+        <v>0.03117809943015779</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1331550517.182634</v>
+        <v>1414500439.629126</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0798695460824187</v>
+        <v>0.09299237695495854</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03476952758928186</v>
+        <v>0.04554045487300797</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1315233938.582972</v>
+        <v>1177994563.690918</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1042305808860294</v>
+        <v>0.104169565821546</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02342104610793286</v>
+        <v>0.03310272591390865</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1879843791.705001</v>
+        <v>2734591407.460021</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2023756333943878</v>
+        <v>0.1523163775832892</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0516841593273109</v>
+        <v>0.05094220152868541</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1040427603.460666</v>
+        <v>1385870850.160059</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09871079402281208</v>
+        <v>0.08402114983244366</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01773285972911978</v>
+        <v>0.01949941017434806</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1036179065.467886</v>
+        <v>924089834.5792167</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09585726983052702</v>
+        <v>0.07645949823277902</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03706334868857591</v>
+        <v>0.04068539421216259</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2933551270.463522</v>
+        <v>2609731701.512263</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1431315196952585</v>
+        <v>0.1242019242233464</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02712068243026603</v>
+        <v>0.02084441738236784</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2537514066.185214</v>
+        <v>2097646821.646803</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1059786084458025</v>
+        <v>0.09916714547739222</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0391065319706828</v>
+        <v>0.03672403820531304</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2044650022.202506</v>
+        <v>1519033701.577629</v>
       </c>
       <c r="F38" t="n">
-        <v>0.118510953510357</v>
+        <v>0.1054828631020569</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03758476052267671</v>
+        <v>0.02687652170407025</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1972900733.682058</v>
+        <v>1797053999.343489</v>
       </c>
       <c r="F39" t="n">
-        <v>0.149789372472561</v>
+        <v>0.1484961199460393</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02837477781332168</v>
+        <v>0.02094862556034762</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1793766687.029322</v>
+        <v>1144235292.603427</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1083119506123715</v>
+        <v>0.1314384457301206</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05805119422361392</v>
+        <v>0.04646245533959191</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2387892957.778141</v>
+        <v>1859410645.286244</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1459060516279524</v>
+        <v>0.1033731014087923</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0382284178927529</v>
+        <v>0.0386333582976247</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3039509257.119451</v>
+        <v>3256353858.521556</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09093094481489719</v>
+        <v>0.07796837117450454</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04216213840371982</v>
+        <v>0.03784763921562709</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2982005669.200041</v>
+        <v>2118956425.611092</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1539449233527603</v>
+        <v>0.1765729870006938</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02140849707557324</v>
+        <v>0.01986605113829362</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1757111076.375449</v>
+        <v>1428854229.250939</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09087713131294624</v>
+        <v>0.08615180275219275</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0311346835085403</v>
+        <v>0.02459841651113444</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1764035535.628038</v>
+        <v>2323808029.842456</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1482821783872598</v>
+        <v>0.1347874655368723</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04965048836125478</v>
+        <v>0.03495891352267681</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4998846367.446789</v>
+        <v>5644463491.974141</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1635301884827843</v>
+        <v>0.1179488923600018</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03773103984770382</v>
+        <v>0.04281484676786036</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5191362956.281832</v>
+        <v>3428559441.808123</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1237154216785605</v>
+        <v>0.1565897953441674</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0451471571763125</v>
+        <v>0.05440095814016189</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3775661659.46332</v>
+        <v>3796843130.717462</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07272800676880023</v>
+        <v>0.09564032555326316</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02778168271098278</v>
+        <v>0.03377442505857127</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1514259085.387991</v>
+        <v>1499263662.675534</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1702242505369632</v>
+        <v>0.1688430364674217</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0279464254010277</v>
+        <v>0.0282941745684767</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3655827757.007055</v>
+        <v>3530006664.156429</v>
       </c>
       <c r="F50" t="n">
-        <v>0.14796974153848</v>
+        <v>0.1171357713492634</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05351755843159563</v>
+        <v>0.04106232212056945</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>995464119.1590563</v>
+        <v>1200274777.953321</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1895943680361321</v>
+        <v>0.1924801239645274</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0340620787642483</v>
+        <v>0.03834841963616386</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3464180778.727463</v>
+        <v>3705357912.223571</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1243631836101745</v>
+        <v>0.09463933760299038</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0520272025102344</v>
+        <v>0.05511742122698268</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3737558012.582287</v>
+        <v>3552081337.514676</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1591772921059956</v>
+        <v>0.19789789789908</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02345059104127723</v>
+        <v>0.0241666048864408</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4569951250.047166</v>
+        <v>4912356072.852938</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1635570995510702</v>
+        <v>0.1354611742978047</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03602676380074405</v>
+        <v>0.0342842651665097</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3548507020.524257</v>
+        <v>3185527805.040587</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1734395581692358</v>
+        <v>0.1438186731600315</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02455589293667964</v>
+        <v>0.0206693864084461</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1540344152.67321</v>
+        <v>1304591200.733815</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09972254986869913</v>
+        <v>0.1242691073056614</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03709731958876098</v>
+        <v>0.04827411007781873</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3942141217.65346</v>
+        <v>4266375760.05695</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1657947769029308</v>
+        <v>0.1574368315238932</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01748533612078462</v>
+        <v>0.02274341941640787</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1219775481.558378</v>
+        <v>1654941928.768319</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1473624500575953</v>
+        <v>0.1276932769700905</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0392869614894462</v>
+        <v>0.02611220293464795</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4554673072.602079</v>
+        <v>4199812540.068812</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08202829686332092</v>
+        <v>0.1309187883348576</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03519675663897132</v>
+        <v>0.04546576612982729</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3660158973.42459</v>
+        <v>3160923498.377719</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1533358087767831</v>
+        <v>0.1491091686494251</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0280911969328689</v>
+        <v>0.02522654707428208</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3307070266.57358</v>
+        <v>3394137181.72653</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1476875813597737</v>
+        <v>0.1789285588520028</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0270200165889906</v>
+        <v>0.02676571432150167</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1411473518.391115</v>
+        <v>1862708652.133974</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1243645636104258</v>
+        <v>0.1632063173595903</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04183843172257626</v>
+        <v>0.04188735977904472</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4056195346.239644</v>
+        <v>5456939581.841941</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06933303633632903</v>
+        <v>0.0710887549281079</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04534943929485356</v>
+        <v>0.04655819562023467</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3409242406.075475</v>
+        <v>3581529775.623065</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1417012771546566</v>
+        <v>0.1289538786871278</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03227797142264746</v>
+        <v>0.02382437459437776</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3739212686.238814</v>
+        <v>4988839592.366028</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1128504811564661</v>
+        <v>0.1627467607422071</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02964115942434636</v>
+        <v>0.02277822291235765</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3483735930.729783</v>
+        <v>4959278644.973101</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1518939487630601</v>
+        <v>0.1433250711370188</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04713409866091679</v>
+        <v>0.04033071528470714</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2959262088.775962</v>
+        <v>3363077046.392505</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07612649106011482</v>
+        <v>0.08067363870248494</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03347639627928128</v>
+        <v>0.05001194106303222</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4021609805.411527</v>
+        <v>4932838606.698853</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1489708827691581</v>
+        <v>0.146942027096457</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05150010104516189</v>
+        <v>0.03378869027453543</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1867259369.792871</v>
+        <v>1813688924.213544</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1446398654228212</v>
+        <v>0.1111887855924547</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05022779486056089</v>
+        <v>0.03708304367500535</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2414663980.692494</v>
+        <v>3409677567.716382</v>
       </c>
       <c r="F70" t="n">
-        <v>0.091037806844185</v>
+        <v>0.09962735144208455</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04536499154825242</v>
+        <v>0.04665179779226711</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4792763284.779585</v>
+        <v>4677432888.529067</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1417245206221324</v>
+        <v>0.1214688654723615</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02507027680147552</v>
+        <v>0.028692063736546</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1971910660.785441</v>
+        <v>1997132820.936325</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08103212095368639</v>
+        <v>0.07342069872419243</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0525828549146711</v>
+        <v>0.03690103048395327</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3109294651.139635</v>
+        <v>3372639405.385339</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07915324022646925</v>
+        <v>0.08148941645662067</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04729103583507248</v>
+        <v>0.03975333826199975</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3860482585.855876</v>
+        <v>3617315508.247429</v>
       </c>
       <c r="F74" t="n">
-        <v>0.124098541704107</v>
+        <v>0.1581394683373678</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03347556061666325</v>
+        <v>0.0269087869313087</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2275563818.272057</v>
+        <v>1555112863.326886</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1011883075716923</v>
+        <v>0.1123081891135852</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03478754434585515</v>
+        <v>0.03377159690089382</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3897580019.645455</v>
+        <v>5298399518.143352</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08256529777433333</v>
+        <v>0.08585357468364968</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02842576384264704</v>
+        <v>0.02308358086825321</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2253505299.589922</v>
+        <v>1575818369.61551</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1494845517644221</v>
+        <v>0.1180142755504364</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02461050195940363</v>
+        <v>0.01974221755219677</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3716893890.739107</v>
+        <v>3297728416.080944</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1088180244582121</v>
+        <v>0.08535601347395619</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03487869970419117</v>
+        <v>0.0518594207715393</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1308179326.969387</v>
+        <v>1500908020.270736</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1217322285720016</v>
+        <v>0.1419408805624286</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02836355237843095</v>
+        <v>0.02858482823985646</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3838323393.149593</v>
+        <v>5132534730.444225</v>
       </c>
       <c r="F80" t="n">
-        <v>0.103617353690423</v>
+        <v>0.07765437497145765</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03553088551518744</v>
+        <v>0.03007857926145389</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4693842883.218805</v>
+        <v>3683795582.897161</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1098878661568944</v>
+        <v>0.1350652292421961</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02111347966395269</v>
+        <v>0.02628747351789469</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5532069460.713121</v>
+        <v>4629975159.059127</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1457701513582799</v>
+        <v>0.1785874975585885</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01987944016017031</v>
+        <v>0.02077964870009691</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1871425464.954747</v>
+        <v>1891077369.690524</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09606835491604918</v>
+        <v>0.1161418513497899</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03180699406556625</v>
+        <v>0.04553078411677903</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2579485577.187398</v>
+        <v>2272077065.698915</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07876561126492196</v>
+        <v>0.0911505247509804</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04086510030747522</v>
+        <v>0.05040736002019038</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2725356069.232279</v>
+        <v>3182062474.06341</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1406718192155092</v>
+        <v>0.155837766669086</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0461943322647587</v>
+        <v>0.03511383632927637</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1711858417.018075</v>
+        <v>2678775340.150526</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1459387738619435</v>
+        <v>0.1504111039161426</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01927409570748238</v>
+        <v>0.0232088145799314</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1447178298.062404</v>
+        <v>1374565140.659859</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1179295555471812</v>
+        <v>0.1207396725155856</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03743780673875007</v>
+        <v>0.03791481209816764</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3373982562.680757</v>
+        <v>3296700220.523877</v>
       </c>
       <c r="F88" t="n">
-        <v>0.141253660792215</v>
+        <v>0.1354986953337964</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03719675817543146</v>
+        <v>0.02546811159689386</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2150144240.226922</v>
+        <v>3444510314.642981</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1164641890471072</v>
+        <v>0.1166395534686955</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03157346265810078</v>
+        <v>0.02773874680052967</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2048768880.442938</v>
+        <v>2108744529.852775</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08310217047644021</v>
+        <v>0.106261456178018</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05298744095189636</v>
+        <v>0.04236647770990357</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1741277573.752222</v>
+        <v>2098084614.158879</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1567264852026061</v>
+        <v>0.1605116759600027</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04307640190468963</v>
+        <v>0.06039214909431839</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2875523232.689151</v>
+        <v>2347447565.669098</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08155907807231567</v>
+        <v>0.08176565013405493</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04377451495013916</v>
+        <v>0.03359809462913543</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3840717139.705346</v>
+        <v>4456201376.203156</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1235877692152495</v>
+        <v>0.1414116071197209</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03663627765587363</v>
+        <v>0.04889197565899483</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1693819599.337212</v>
+        <v>1739219335.329556</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1104257585522227</v>
+        <v>0.1335206880615908</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04144825297404744</v>
+        <v>0.02713541192698237</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2112090946.656065</v>
+        <v>2146653857.966218</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1056655134172158</v>
+        <v>0.08808753027445333</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05027085752809584</v>
+        <v>0.0518757222524153</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1687942455.167667</v>
+        <v>1838434916.961487</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1198316258537135</v>
+        <v>0.1027658360737684</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03916105312238151</v>
+        <v>0.02978381246960701</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4050564589.051409</v>
+        <v>3973117377.587218</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1143845599903675</v>
+        <v>0.1705999837179494</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02630393412514694</v>
+        <v>0.02373874757055969</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2746974021.322476</v>
+        <v>2880289017.127744</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08097813545421735</v>
+        <v>0.1267283762482192</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02304810834460514</v>
+        <v>0.02304131053879731</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2467902058.755164</v>
+        <v>2690624624.583034</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1222262885046248</v>
+        <v>0.1473962607015854</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03222334558511363</v>
+        <v>0.02932597737183534</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4630194726.311988</v>
+        <v>3043908372.904697</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1520864838807819</v>
+        <v>0.1312924170023106</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02413648192203864</v>
+        <v>0.02385086520412049</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2848109919.876497</v>
+        <v>2388386138.86079</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1734676510615422</v>
+        <v>0.2210668425017771</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03542354200506083</v>
+        <v>0.04319254525891734</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_168.xlsx
+++ b/output/fit_clients/fit_round_168.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1931974582.431729</v>
+        <v>2352432198.302504</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1086795253148263</v>
+        <v>0.09821558042360744</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04479071462250439</v>
+        <v>0.04053619317949745</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2507435220.774049</v>
+        <v>1718635330.118869</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1783853217831218</v>
+        <v>0.1439445017676058</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03794704230718891</v>
+        <v>0.03422309102591519</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4703661175.401703</v>
+        <v>4109588939.698478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1502835348659116</v>
+        <v>0.1585456603843065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03125280163299302</v>
+        <v>0.03730064512264908</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>94</v>
+      </c>
+      <c r="J4" t="n">
+        <v>167</v>
+      </c>
+      <c r="K4" t="n">
+        <v>129.5623477184748</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3684887496.575202</v>
+        <v>2785501538.822368</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07204636731476249</v>
+        <v>0.06870965241362352</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04353797278049228</v>
+        <v>0.04759153525744671</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>69</v>
+      </c>
+      <c r="J5" t="n">
+        <v>167</v>
+      </c>
+      <c r="K5" t="n">
+        <v>71.85697356489285</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2752696374.390094</v>
+        <v>2380257489.417057</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09027136957373183</v>
+        <v>0.1477941089070299</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05337291512710318</v>
+        <v>0.03533540181717993</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2938681444.900118</v>
+        <v>2776677434.515705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0705450373472216</v>
+        <v>0.09072566132703319</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03716537212242388</v>
+        <v>0.0454798886484192</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2420271790.221219</v>
+        <v>2856808431.312871</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1919635361975802</v>
+        <v>0.1800063515010476</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0332902468163013</v>
+        <v>0.02731627243347919</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>48</v>
+      </c>
+      <c r="J8" t="n">
+        <v>165</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1993329541.860883</v>
+        <v>1394923818.313664</v>
       </c>
       <c r="F9" t="n">
-        <v>0.178459007226207</v>
+        <v>0.1590387469951469</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03693254112184494</v>
+        <v>0.03366902059169277</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5826666600.275118</v>
+        <v>3588096361.692997</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1574229967184913</v>
+        <v>0.1874427662029496</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04331621166629398</v>
+        <v>0.04767918616985645</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>155</v>
+      </c>
+      <c r="J10" t="n">
+        <v>167</v>
+      </c>
+      <c r="K10" t="n">
+        <v>114.9038221550975</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3607869046.454291</v>
+        <v>3714179242.930842</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1506887766620725</v>
+        <v>0.1518157278392402</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03669278496544148</v>
+        <v>0.04443471413619442</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>69</v>
+      </c>
+      <c r="J11" t="n">
+        <v>168</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2743993049.06336</v>
+        <v>2882926368.403101</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1662251976841052</v>
+        <v>0.1867889606872388</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04002757826316165</v>
+        <v>0.05015524036145784</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5064919638.405032</v>
+        <v>4216013890.246558</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06785613455935199</v>
+        <v>0.08465862945143306</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02204362252714018</v>
+        <v>0.02759498663474969</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>82</v>
+      </c>
+      <c r="J13" t="n">
+        <v>168</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3807706716.599853</v>
+        <v>3469530353.08589</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1344470000190436</v>
+        <v>0.161924217864354</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03135145035176586</v>
+        <v>0.02997943828166308</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>166</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1484071130.732916</v>
+        <v>1692078965.854972</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1085456970644348</v>
+        <v>0.07020895400858333</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04752168580858619</v>
+        <v>0.04316917529367022</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2485783659.675699</v>
+        <v>1781494972.557355</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07515145649935331</v>
+        <v>0.08879353621900896</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04320713686097082</v>
+        <v>0.03384381356561911</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3887435878.067142</v>
+        <v>4684340725.729367</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1488536504166341</v>
+        <v>0.1442023196466096</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04736741010465936</v>
+        <v>0.04744471540881758</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>80</v>
+      </c>
+      <c r="J17" t="n">
+        <v>168</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3254672872.313463</v>
+        <v>2808185188.69048</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1808993436186661</v>
+        <v>0.1807199365359537</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02485300464521611</v>
+        <v>0.02104367700630304</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>42</v>
+      </c>
+      <c r="J18" t="n">
+        <v>166</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>881637153.5231286</v>
+        <v>1168659806.520318</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1348182738304441</v>
+        <v>0.1596457637120121</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02216949876944271</v>
+        <v>0.02749397954085941</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2060703948.736182</v>
+        <v>2359621629.222887</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1246819423162309</v>
+        <v>0.1493983262649278</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02426659801318403</v>
+        <v>0.02368776380546866</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1834688670.515977</v>
+        <v>1900086395.514347</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07790939942898127</v>
+        <v>0.08983207521384276</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03478600725542405</v>
+        <v>0.04108688875837127</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1207,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3584244186.860116</v>
+        <v>2807093585.71843</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1180964225461877</v>
+        <v>0.09549770033350932</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05189587499827921</v>
+        <v>0.03721288657961248</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>44</v>
+      </c>
+      <c r="J22" t="n">
+        <v>166</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1221870658.453401</v>
+        <v>1290449239.499861</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1578230884786239</v>
+        <v>0.1424101508244684</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05272115044695871</v>
+        <v>0.05059907180132744</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3522072571.1607</v>
+        <v>3730423010.369787</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09241689597990276</v>
+        <v>0.1226924232350133</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0261460416714631</v>
+        <v>0.03150436215770134</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="n">
+        <v>168</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1287871681.520143</v>
+        <v>1044310129.712342</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1044961575123748</v>
+        <v>0.09158631994063939</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02459405886624575</v>
+        <v>0.02373927843860188</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1298819377.078188</v>
+        <v>1176310838.412186</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1174482284463664</v>
+        <v>0.1029779456502349</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02456798641067146</v>
+        <v>0.02645767071790277</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4511919186.108055</v>
+        <v>3086512866.722046</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1111416181432369</v>
+        <v>0.1497219028782025</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01759340526664346</v>
+        <v>0.02366535625037934</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>67</v>
+      </c>
+      <c r="J27" t="n">
+        <v>167</v>
+      </c>
+      <c r="K27" t="n">
+        <v>66.37089646458959</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3757347456.232434</v>
+        <v>3804266256.745461</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1195411949603956</v>
+        <v>0.1179713845401213</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03144890049458157</v>
+        <v>0.04281893497438655</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>32</v>
+      </c>
+      <c r="J28" t="n">
+        <v>167</v>
+      </c>
+      <c r="K28" t="n">
+        <v>118.4988328749729</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4620837956.558188</v>
+        <v>4356736681.175771</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1243067284879039</v>
+        <v>0.1305346342073882</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03437061739927768</v>
+        <v>0.0436782515625754</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>157</v>
+      </c>
+      <c r="J29" t="n">
+        <v>168</v>
+      </c>
+      <c r="K29" t="n">
+        <v>152.8541671405358</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1778178475.422661</v>
+        <v>1937926617.677746</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1091817050538667</v>
+        <v>0.09339715161707533</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03117809943015779</v>
+        <v>0.03368777537643814</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1414500439.629126</v>
+        <v>1499929645.320769</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09299237695495854</v>
+        <v>0.1069390959871866</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04554045487300797</v>
+        <v>0.03245007815771488</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1177994563.690918</v>
+        <v>1666999805.266336</v>
       </c>
       <c r="F32" t="n">
-        <v>0.104169565821546</v>
+        <v>0.07689226502546993</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03310272591390865</v>
+        <v>0.02631747876147223</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2734591407.460021</v>
+        <v>3010611634.932203</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1523163775832892</v>
+        <v>0.1812436568908955</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05094220152868541</v>
+        <v>0.0483749118335972</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1385870850.160059</v>
+        <v>994846188.5567104</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08402114983244366</v>
+        <v>0.1096564206021727</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01949941017434806</v>
+        <v>0.01811437204222072</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>924089834.5792167</v>
+        <v>1297587284.245311</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07645949823277902</v>
+        <v>0.08300142075324006</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04068539421216259</v>
+        <v>0.0298565013070861</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2609731701.512263</v>
+        <v>2514035156.163142</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1242019242233464</v>
+        <v>0.167348101064127</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02084441738236784</v>
+        <v>0.0239995565179981</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2097646821.646803</v>
+        <v>2251992587.315683</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09916714547739222</v>
+        <v>0.09814001880082215</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03672403820531304</v>
+        <v>0.03485074841037293</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1519033701.577629</v>
+        <v>2201975754.872198</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1054828631020569</v>
+        <v>0.1183826311348064</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02687652170407025</v>
+        <v>0.0392309427369473</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1797053999.343489</v>
+        <v>1934279632.226092</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1484961199460393</v>
+        <v>0.1903886971210614</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02094862556034762</v>
+        <v>0.03190684999677151</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1144235292.603427</v>
+        <v>1812720316.704357</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1314384457301206</v>
+        <v>0.1516358338485709</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04646245533959191</v>
+        <v>0.05638163241994428</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1859410645.286244</v>
+        <v>2607679714.050735</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1033731014087923</v>
+        <v>0.1404543471840823</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0386333582976247</v>
+        <v>0.0320206233280395</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3256353858.521556</v>
+        <v>3224565739.36248</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07796837117450454</v>
+        <v>0.1123124065172308</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03784763921562709</v>
+        <v>0.04176274248082239</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>63</v>
+      </c>
+      <c r="J42" t="n">
+        <v>166</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2118956425.611092</v>
+        <v>2186194453.953055</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1765729870006938</v>
+        <v>0.1789117851275023</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01986605113829362</v>
+        <v>0.02569666464417167</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1428854229.250939</v>
+        <v>2286590268.755774</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08615180275219275</v>
+        <v>0.08714398734218619</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02459841651113444</v>
+        <v>0.02412883910963214</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2323808029.842456</v>
+        <v>1822188333.068767</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1347874655368723</v>
+        <v>0.1936653715543499</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03495891352267681</v>
+        <v>0.03623477953781745</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5644463491.974141</v>
+        <v>5630226524.54584</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1179488923600018</v>
+        <v>0.1575891493625653</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04281484676786036</v>
+        <v>0.04388485190941513</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>95</v>
+      </c>
+      <c r="J46" t="n">
+        <v>167</v>
+      </c>
+      <c r="K46" t="n">
+        <v>133.4577874682992</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3428559441.808123</v>
+        <v>4273974931.695094</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1565897953441674</v>
+        <v>0.1976031492783937</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05440095814016189</v>
+        <v>0.05608483354032089</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>74</v>
+      </c>
+      <c r="J47" t="n">
+        <v>168</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3796843130.717462</v>
+        <v>4015543227.047211</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09564032555326316</v>
+        <v>0.1064287813024809</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03377442505857127</v>
+        <v>0.03116014648703045</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>76</v>
+      </c>
+      <c r="J48" t="n">
+        <v>168</v>
+      </c>
+      <c r="K48" t="n">
+        <v>135.358331969823</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1499263662.675534</v>
+        <v>1219754872.085019</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1688430364674217</v>
+        <v>0.1826683768718476</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0282941745684767</v>
+        <v>0.04480419836686946</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3530006664.156429</v>
+        <v>3385783797.731071</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1171357713492634</v>
+        <v>0.1640337884546379</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04106232212056945</v>
+        <v>0.04310197252653069</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>55</v>
+      </c>
+      <c r="J50" t="n">
+        <v>163</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1200274777.953321</v>
+        <v>1100447966.026194</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1924801239645274</v>
+        <v>0.1261760181513818</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03834841963616386</v>
+        <v>0.04308191512353756</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3705357912.223571</v>
+        <v>3768736404.798749</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09463933760299038</v>
+        <v>0.1328058344690573</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05511742122698268</v>
+        <v>0.04687508748445914</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>119</v>
+      </c>
+      <c r="J52" t="n">
+        <v>168</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3552081337.514676</v>
+        <v>3742302675.905248</v>
       </c>
       <c r="F53" t="n">
-        <v>0.19789789789908</v>
+        <v>0.1983581902410818</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0241666048864408</v>
+        <v>0.02831924634971637</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>21</v>
+      </c>
+      <c r="J53" t="n">
+        <v>168</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4912356072.852938</v>
+        <v>4146951123.786745</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1354611742978047</v>
+        <v>0.123603840715796</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0342842651665097</v>
+        <v>0.05296081883412891</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>82</v>
+      </c>
+      <c r="J54" t="n">
+        <v>168</v>
+      </c>
+      <c r="K54" t="n">
+        <v>135.8292864557488</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3185527805.040587</v>
+        <v>4395885283.09452</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1438186731600315</v>
+        <v>0.1445681958001162</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0206693864084461</v>
+        <v>0.02538436354284776</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>76</v>
+      </c>
+      <c r="J55" t="n">
+        <v>168</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1304591200.733815</v>
+        <v>1863448309.774483</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1242691073056614</v>
+        <v>0.1185988757996722</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04827411007781873</v>
+        <v>0.04575998134479774</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4266375760.05695</v>
+        <v>4417094639.582219</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1574368315238932</v>
+        <v>0.1812355526787467</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02274341941640787</v>
+        <v>0.02071656375003529</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>68</v>
+      </c>
+      <c r="J57" t="n">
+        <v>168</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1654941928.768319</v>
+        <v>1165641985.409428</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1276932769700905</v>
+        <v>0.1340341604308738</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02611220293464795</v>
+        <v>0.03845546613890466</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4199812540.068812</v>
+        <v>5344900930.713196</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1309187883348576</v>
+        <v>0.1224204162382928</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04546576612982729</v>
+        <v>0.04015194125069971</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>81</v>
+      </c>
+      <c r="J59" t="n">
+        <v>167</v>
+      </c>
+      <c r="K59" t="n">
+        <v>122.5090253946126</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3160923498.377719</v>
+        <v>3118154637.893888</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1491091686494251</v>
+        <v>0.1532770563838454</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02522654707428208</v>
+        <v>0.03278474618086596</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3394137181.72653</v>
+        <v>2855978682.754814</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1789285588520028</v>
+        <v>0.1180493805025119</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02676571432150167</v>
+        <v>0.02364796467603723</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1862708652.133974</v>
+        <v>1571957955.040003</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1632063173595903</v>
+        <v>0.1608543883214312</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04188735977904472</v>
+        <v>0.03487758257471264</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5456939581.841941</v>
+        <v>5210562646.076129</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0710887549281079</v>
+        <v>0.06675357192443439</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04655819562023467</v>
+        <v>0.0338448440442402</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>82</v>
+      </c>
+      <c r="J63" t="n">
+        <v>168</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3581529775.623065</v>
+        <v>3996614416.135053</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1289538786871278</v>
+        <v>0.1335008720451354</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02382437459437776</v>
+        <v>0.02429023430102525</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>83</v>
+      </c>
+      <c r="J64" t="n">
+        <v>167</v>
+      </c>
+      <c r="K64" t="n">
+        <v>124.0133848100165</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4988839592.366028</v>
+        <v>5192115388.934849</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1627467607422071</v>
+        <v>0.1452727425640205</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02277822291235765</v>
+        <v>0.0283875609776883</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>139</v>
+      </c>
+      <c r="J65" t="n">
+        <v>167</v>
+      </c>
+      <c r="K65" t="n">
+        <v>133.5030683391556</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4959278644.973101</v>
+        <v>5710052300.800517</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1433250711370188</v>
+        <v>0.1605712392533852</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04033071528470714</v>
+        <v>0.03920742005171181</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>83</v>
+      </c>
+      <c r="J66" t="n">
+        <v>167</v>
+      </c>
+      <c r="K66" t="n">
+        <v>121.1120885408163</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3363077046.392505</v>
+        <v>2609246560.307979</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08067363870248494</v>
+        <v>0.08491946771228058</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05001194106303222</v>
+        <v>0.03347482002467855</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2837,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4932838606.698853</v>
+        <v>3732181421.530122</v>
       </c>
       <c r="F68" t="n">
-        <v>0.146942027096457</v>
+        <v>0.1490575804276449</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03378869027453543</v>
+        <v>0.04365043378847789</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>84</v>
+      </c>
+      <c r="J68" t="n">
+        <v>168</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1813688924.213544</v>
+        <v>2390347376.180377</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1111887855924547</v>
+        <v>0.1426219891530693</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03708304367500535</v>
+        <v>0.05077647288214516</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2901,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3409677567.716382</v>
+        <v>3452258393.816402</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09962735144208455</v>
+        <v>0.09460258942629492</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04665179779226711</v>
+        <v>0.03870778629600145</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="n">
+        <v>90.2291829744352</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4677432888.529067</v>
+        <v>4015714784.75679</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1214688654723615</v>
+        <v>0.1743876938613585</v>
       </c>
       <c r="G71" t="n">
-        <v>0.028692063736546</v>
+        <v>0.02109047969400627</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>132</v>
+      </c>
+      <c r="J71" t="n">
+        <v>168</v>
+      </c>
+      <c r="K71" t="n">
+        <v>133.9952421289488</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1997132820.936325</v>
+        <v>1452465246.219668</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07342069872419243</v>
+        <v>0.07140694580770256</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03690103048395327</v>
+        <v>0.04989125199037728</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3372639405.385339</v>
+        <v>2327713280.720463</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08148941645662067</v>
+        <v>0.09529586268879278</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03975333826199975</v>
+        <v>0.03609464623778556</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3617315508.247429</v>
+        <v>3165002594.532051</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1581394683373678</v>
+        <v>0.1200999087750022</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0269087869313087</v>
+        <v>0.03098516751050364</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>49</v>
+      </c>
+      <c r="J74" t="n">
+        <v>164</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1555112863.326886</v>
+        <v>1853041211.193971</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1123081891135852</v>
+        <v>0.1024691510974963</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03377159690089382</v>
+        <v>0.03648209457682563</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5298399518.143352</v>
+        <v>4388922323.753448</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08585357468364968</v>
+        <v>0.1159948671826103</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02308358086825321</v>
+        <v>0.03036428513797139</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>77</v>
+      </c>
+      <c r="J76" t="n">
+        <v>167</v>
+      </c>
+      <c r="K76" t="n">
+        <v>109.3897215635081</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1575818369.61551</v>
+        <v>2032691262.619146</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1180142755504364</v>
+        <v>0.1177526021624437</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01974221755219677</v>
+        <v>0.02846246491274881</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3297728416.080944</v>
+        <v>3945807328.760262</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08535601347395619</v>
+        <v>0.1006203889450429</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0518594207715393</v>
+        <v>0.05435066904376228</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>84</v>
+      </c>
+      <c r="J78" t="n">
+        <v>168</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1500908020.270736</v>
+        <v>1680692147.627956</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1419408805624286</v>
+        <v>0.1235733793300928</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02858482823985646</v>
+        <v>0.03930946941884144</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5132534730.444225</v>
+        <v>3490456094.326763</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07765437497145765</v>
+        <v>0.08612451698537422</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03007857926145389</v>
+        <v>0.03175527775631398</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>82</v>
+      </c>
+      <c r="J80" t="n">
+        <v>167</v>
+      </c>
+      <c r="K80" t="n">
+        <v>73.00217060518874</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3683795582.897161</v>
+        <v>3447646788.710627</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1350652292421961</v>
+        <v>0.1040609117202128</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02628747351789469</v>
+        <v>0.02506832923805412</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>77</v>
+      </c>
+      <c r="J81" t="n">
+        <v>166</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4629975159.059127</v>
+        <v>5246984200.82562</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1785874975585885</v>
+        <v>0.1537529129579036</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02077964870009691</v>
+        <v>0.02620370506751236</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>123</v>
+      </c>
+      <c r="J82" t="n">
+        <v>168</v>
+      </c>
+      <c r="K82" t="n">
+        <v>140.4047940996735</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1891077369.690524</v>
+        <v>2142431945.364296</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1161418513497899</v>
+        <v>0.1027030661218124</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04553078411677903</v>
+        <v>0.03931267318930734</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2272077065.698915</v>
+        <v>2394736097.269488</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0911505247509804</v>
+        <v>0.09956743608802245</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05040736002019038</v>
+        <v>0.0513135202200627</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3182062474.06341</v>
+        <v>3509737037.947866</v>
       </c>
       <c r="F85" t="n">
-        <v>0.155837766669086</v>
+        <v>0.1429762831199601</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03511383632927637</v>
+        <v>0.04147679702559188</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+      <c r="J85" t="n">
+        <v>168</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2678775340.150526</v>
+        <v>2743722405.984041</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1504111039161426</v>
+        <v>0.131713288643504</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0232088145799314</v>
+        <v>0.02048265352728374</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1374565140.659859</v>
+        <v>1439504994.964223</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1207396725155856</v>
+        <v>0.187028929559617</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03791481209816764</v>
+        <v>0.03261204009412241</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3296700220.523877</v>
+        <v>2389929924.716955</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1354986953337964</v>
+        <v>0.175456844263305</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02546811159689386</v>
+        <v>0.03653849667258143</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3444510314.642981</v>
+        <v>3338176823.896182</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1166395534686955</v>
+        <v>0.09632865621714877</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02773874680052967</v>
+        <v>0.03849040900836662</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2108744529.852775</v>
+        <v>1557836776.694523</v>
       </c>
       <c r="F90" t="n">
-        <v>0.106261456178018</v>
+        <v>0.1129343161172095</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04236647770990357</v>
+        <v>0.03526884203758069</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2098084614.158879</v>
+        <v>1556190492.675704</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1605116759600027</v>
+        <v>0.1456302602311934</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06039214909431839</v>
+        <v>0.04313355727971088</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2347447565.669098</v>
+        <v>2563912569.270013</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08176565013405493</v>
+        <v>0.1083833419260545</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03359809462913543</v>
+        <v>0.03264459572534138</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4456201376.203156</v>
+        <v>4403581294.890785</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1414116071197209</v>
+        <v>0.1178929469155184</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04889197565899483</v>
+        <v>0.04762169708647807</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>75</v>
+      </c>
+      <c r="J93" t="n">
+        <v>168</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1739219335.329556</v>
+        <v>1972845107.669066</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1335206880615908</v>
+        <v>0.1132358207919406</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02713541192698237</v>
+        <v>0.03743249752342796</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2146653857.966218</v>
+        <v>2375010469.472517</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08808753027445333</v>
+        <v>0.1253437975332317</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0518757222524153</v>
+        <v>0.03749685703138769</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1838434916.961487</v>
+        <v>1570283696.24404</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1027658360737684</v>
+        <v>0.1238327689303625</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02978381246960701</v>
+        <v>0.03991587880014887</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3973117377.587218</v>
+        <v>3963326864.446557</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1705999837179494</v>
+        <v>0.1331543658471056</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02373874757055969</v>
+        <v>0.02797634034959423</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>81</v>
+      </c>
+      <c r="J97" t="n">
+        <v>167</v>
+      </c>
+      <c r="K97" t="n">
+        <v>124.7799229534083</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2880289017.127744</v>
+        <v>2710824675.201234</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1267283762482192</v>
+        <v>0.08893275499549183</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02304131053879731</v>
+        <v>0.02383252411485494</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>40</v>
+      </c>
+      <c r="J98" t="n">
+        <v>166</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2690624624.583034</v>
+        <v>2128090461.12409</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1473962607015854</v>
+        <v>0.09350888495552051</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02932597737183534</v>
+        <v>0.02871403308316282</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3969,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3043908372.904697</v>
+        <v>3756976445.776276</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1312924170023106</v>
+        <v>0.1455621163644277</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02385086520412049</v>
+        <v>0.01931428530045859</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>70</v>
+      </c>
+      <c r="J100" t="n">
+        <v>168</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2388386138.86079</v>
+        <v>3329570320.211598</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2210668425017771</v>
+        <v>0.1379062977456107</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04319254525891734</v>
+        <v>0.04257822855777487</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>167</v>
+      </c>
+      <c r="K101" t="n">
+        <v>89.86641130913713</v>
       </c>
     </row>
   </sheetData>
